--- a/competitions/test2.xlsx
+++ b/competitions/test2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\code\3s\competitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\Desktop\code\3s\3s_hit_competition\competitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF40B6-0340-49FE-951D-239671EB3092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4969C4B-78D9-4FAA-B701-41289A3B2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大學男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,10 @@
   </si>
   <si>
     <t>男四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大學男子組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +399,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="E7:F8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -432,13 +432,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -452,13 +452,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
